--- a/documentation/costs.xlsx
+++ b/documentation/costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\projects\DrAI\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA08A4E-8B41-40DB-B628-2261E9201A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862621A3-F558-4E60-8594-B0D731AAF99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -834,7 +834,7 @@
   <dimension ref="B3:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
